--- a/data/raw/response_traits/Tabla de abreviaturas.xlsx
+++ b/data/raw/response_traits/Tabla de abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Rasgos</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Arbóreo inferior (5 - 24.9 m)</t>
   </si>
   <si>
-    <t>Estrato</t>
-  </si>
-  <si>
     <t>Arbóreo medio (25 - 34.9 m)</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>DH</t>
   </si>
   <si>
-    <t>DANI</t>
-  </si>
-  <si>
     <t>DVAR</t>
   </si>
   <si>
@@ -166,6 +160,18 @@
   </si>
   <si>
     <t>Abreviaciones viejas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varios </t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>DNV</t>
+  </si>
+  <si>
+    <t>VAR</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -358,18 +364,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,30 +371,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -408,9 +381,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +412,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -740,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -757,10 +757,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1">
-      <c r="F2" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="37"/>
+      <c r="F2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:7" ht="15.75">
       <c r="B3" s="1" t="s">
@@ -772,110 +772,112 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="31.5">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:7" ht="15.75">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>45</v>
+      <c r="G4" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="17"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="31.5">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:7" ht="15.75">
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>46</v>
+      <c r="G6" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="31.5">
-      <c r="B7" s="17"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="34" t="s">
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>47</v>
+      <c r="G7" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75">
-      <c r="B8" s="17"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>48</v>
+      <c r="G8" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75">
-      <c r="B9" s="18"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -884,201 +886,186 @@
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="31.5">
-      <c r="B11" s="22"/>
+    <row r="11" spans="2:7" ht="15.75">
+      <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75">
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="23"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75">
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75">
-      <c r="B14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75">
+      <c r="B16" s="14"/>
+      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75">
+      <c r="B17" s="14"/>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="25"/>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="31.5">
+      <c r="B18" s="14"/>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75">
-      <c r="B16" s="25"/>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="F18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="31.5">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="31.5">
-      <c r="B17" s="25"/>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="47.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="47.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="31.5">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="F20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="47.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="G20" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75">
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="11">
-        <v>3</v>
-      </c>
-      <c r="E21" s="15"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:7" ht="15.75">
-      <c r="B22" s="12"/>
-      <c r="C22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="11">
-        <v>4</v>
-      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75">
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B18"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/response_traits/Tabla de abreviaturas.xlsx
+++ b/data/raw/response_traits/Tabla de abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Rasgos</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Arbóreo inferior (5 - 24.9 m)</t>
   </si>
   <si>
-    <t>Estrato</t>
-  </si>
-  <si>
     <t>Arbóreo medio (25 - 34.9 m)</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>DH</t>
   </si>
   <si>
-    <t>DANI</t>
-  </si>
-  <si>
     <t>DVAR</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>Abreviaciones viejas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV </t>
+  </si>
+  <si>
+    <t>DNV</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -358,18 +358,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,42 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -442,6 +394,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -740,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -757,10 +745,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1">
-      <c r="F2" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="37"/>
+      <c r="F2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="15.75">
       <c r="B3" s="1" t="s">
@@ -772,110 +760,112 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="31.5">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:7" ht="15.75">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>45</v>
+      <c r="G4" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="17"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="31.5">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:7" ht="15.75">
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="D6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>46</v>
+      <c r="G6" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="31.5">
-      <c r="B7" s="17"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="34" t="s">
+      <c r="D7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>47</v>
+      <c r="G7" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75">
-      <c r="B8" s="17"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>48</v>
+      <c r="G8" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75">
-      <c r="B9" s="18"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -884,199 +874,166 @@
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="31.5">
-      <c r="B11" s="22"/>
+    <row r="11" spans="2:7" ht="15.75">
+      <c r="B11" s="26"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75">
-      <c r="B12" s="22"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="23"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>45</v>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="25"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>48</v>
+      <c r="G15" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75">
-      <c r="B16" s="25"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="31.5">
-      <c r="B17" s="25"/>
+    <row r="17" spans="2:7" ht="15.75">
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="47.25">
-      <c r="B18" s="26"/>
+    <row r="18" spans="2:7" ht="31.5">
+      <c r="B18" s="30"/>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="47.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33" t="s">
+    <row r="19" spans="2:7" ht="31.5">
+      <c r="F19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="31.5">
+      <c r="F20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="47.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="G20" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75">
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="11">
-        <v>3</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75">
-      <c r="B22" s="12"/>
-      <c r="C22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="11">
-        <v>4</v>
-      </c>
+    <row r="21" spans="2:7">
+      <c r="E21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="E6:E7"/>
